--- a/output2.xlsx
+++ b/output2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="second_sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="first_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -16,7 +16,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts>
-    <numFmt numFmtId="1001" formatCode="hh/mm/ss"/>
+    <numFmt numFmtId="1001" formatCode="yyyy-mm-dd hh:mm"/>
+    <numFmt numFmtId="1002" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts>
     <font>
@@ -50,6 +51,7 @@
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xfId="0" numFmtId="1001"/>
+    <xf xfId="0" numFmtId="1002"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,8 +137,8 @@
       <c r="F2" s="1">
         <v>44562.40638888889</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.47916666666666674</v>
+      <c r="G2" s="2">
+        <v>0.375</v>
       </c>
     </row>
     <row r="3">
@@ -164,8 +166,8 @@
       <c r="F3" s="1">
         <v>44562.49334490741</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.47916666666666674</v>
+      <c r="G3" s="2">
+        <v>0.38541666666666674</v>
       </c>
     </row>
     <row r="4">
@@ -193,8 +195,10 @@
       <c r="F4" s="1">
         <v>44562.4171875</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.45833333333333326</v>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -222,8 +226,10 @@
       <c r="F5" s="1">
         <v>44562.380277777775</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.47916666666666674</v>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -251,8 +257,8 @@
       <c r="F6" s="1">
         <v>44562.49594907407</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.47916666666666674</v>
+      <c r="G6" s="2">
+        <v>0.375</v>
       </c>
     </row>
     <row r="7">
@@ -280,8 +286,8 @@
       <c r="F7" s="1">
         <v>44562.414351851854</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.47916666666666674</v>
+      <c r="G7" s="2">
+        <v>0.38541666666666674</v>
       </c>
     </row>
     <row r="8">
@@ -309,8 +315,8 @@
       <c r="F8" s="1">
         <v>44562.411631944444</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.47916666666666674</v>
+      <c r="G8" s="2">
+        <v>0.38541666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="first_sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="second_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -138,7 +138,7 @@
         <v>44562.40638888889</v>
       </c>
       <c r="G2" s="2">
-        <v>0.375</v>
+        <v>0.47916666666666674</v>
       </c>
     </row>
     <row r="3">
@@ -167,7 +167,7 @@
         <v>44562.49334490741</v>
       </c>
       <c r="G3" s="2">
-        <v>0.38541666666666674</v>
+        <v>0.47916666666666674</v>
       </c>
     </row>
     <row r="4">
@@ -195,10 +195,8 @@
       <c r="F4" s="1">
         <v>44562.4171875</v>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c r="G4" s="2">
+        <v>0.45833333333333326</v>
       </c>
     </row>
     <row r="5">
@@ -226,10 +224,8 @@
       <c r="F5" s="1">
         <v>44562.380277777775</v>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c r="G5" s="2">
+        <v>0.47916666666666674</v>
       </c>
     </row>
     <row r="6">
@@ -258,7 +254,7 @@
         <v>44562.49594907407</v>
       </c>
       <c r="G6" s="2">
-        <v>0.375</v>
+        <v>0.47916666666666674</v>
       </c>
     </row>
     <row r="7">
@@ -287,7 +283,7 @@
         <v>44562.414351851854</v>
       </c>
       <c r="G7" s="2">
-        <v>0.38541666666666674</v>
+        <v>0.47916666666666674</v>
       </c>
     </row>
     <row r="8">
@@ -316,7 +312,7 @@
         <v>44562.411631944444</v>
       </c>
       <c r="G8" s="2">
-        <v>0.38541666666666674</v>
+        <v>0.47916666666666674</v>
       </c>
     </row>
   </sheetData>
